--- a/Data Files/katalonData.xlsx
+++ b/Data Files/katalonData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teguh\Katalon Studio\TAK_Batch8_Exercise1\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teguh\Katalon Studio\CURA Healthcare Service\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B43620-310F-4BE4-A06F-17A9DE62E0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59AFAD4-6CEC-45D9-9C81-CE7EADF05559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -95,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +105,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,14 +138,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -148,6 +179,31 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA877A30-1FD8-47E1-AD07-AF25E6747A9C}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:B7" xr:uid="{EA877A30-1FD8-47E1-AD07-AF25E6747A9C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1984AC4B-ACEF-407F-A8EE-16EC5D4CB0BB}" name="username"/>
+    <tableColumn id="2" xr3:uid="{74911DC4-473C-4B7F-9693-AD96D65AE8AA}" name="password"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E50502B-8CD8-4F93-B3CC-967B4CBED330}" name="Table2" displayName="Table2" ref="A1:E37" totalsRowShown="0">
+  <autoFilter ref="A1:E37" xr:uid="{6E50502B-8CD8-4F93-B3CC-967B4CBED330}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7D501DA7-75C3-4B3F-8AAB-EDF821CA2755}" name="facility"/>
+    <tableColumn id="2" xr3:uid="{459A2A69-583B-4577-AF0B-0F7A061936D6}" name="applyReadmission"/>
+    <tableColumn id="3" xr3:uid="{73BDBC61-939B-4AD2-81B9-53C9EE0B65B9}" name="healthcareProgram"/>
+    <tableColumn id="4" xr3:uid="{76F4FF24-2484-4ACC-A2A7-D32093B958F3}" name="visitDate" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{FE1A4DCD-79D1-4EC7-A0AA-6A3795B33E95}" name="comment"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9940ABBB-B08B-485E-94DC-76BF1522B8E2}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,10 +481,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -476,6 +532,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -483,15 +542,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1139,5 +1198,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>